--- a/spliced/falling/2023-03-25_18-01-55/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-55/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.323234558105469</v>
+        <v>-1.97176456451416</v>
       </c>
       <c r="D2" t="n">
-        <v>1.572612762451172</v>
+        <v>1.745009422302246</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7384862899780273</v>
+        <v>0.4838592410087585</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06060181622919789</v>
+        <v>0.1914996167887811</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2589603908683945</v>
+        <v>0.03030422819859344</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4051430983387903</v>
+        <v>0.02057685541069637</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.269093036651612</v>
+        <v>-1.845728397369385</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9374399185180664</v>
+        <v>1.672563552856445</v>
       </c>
       <c r="E3" t="n">
-        <v>1.780844926834106</v>
+        <v>0.5211508870124817</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2129994086597282</v>
+        <v>0.1882859338884768</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3793273995751927</v>
+        <v>0.0655750582480559</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01590242139671223</v>
+        <v>0.4253946024438608</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.246297359466553</v>
+        <v>-2.323234558105469</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5547242164611816</v>
+        <v>1.572612762451172</v>
       </c>
       <c r="E4" t="n">
-        <v>1.987784385681152</v>
+        <v>0.7384862899780273</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5540348317312142</v>
+        <v>0.06060181622919789</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.6639242237028846</v>
+        <v>0.2589603908683945</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.121634874006974</v>
+        <v>0.4051430983387903</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.729167938232422</v>
+        <v>-3.269093036651612</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9446659088134766</v>
+        <v>0.9374399185180664</v>
       </c>
       <c r="E5" t="n">
-        <v>2.494723320007324</v>
+        <v>1.780844926834106</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.05442012457743672</v>
+        <v>-0.2129994086597282</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6851783446643664</v>
+        <v>0.3793273995751927</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.266947746276855</v>
+        <v>0.01590242139671223</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.581250190734864</v>
+        <v>-1.246297359466553</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.341118812561035</v>
+        <v>0.5547242164611816</v>
       </c>
       <c r="E6" t="n">
-        <v>3.135838031768799</v>
+        <v>1.987784385681152</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.690450101442949</v>
+        <v>0.5540348317312142</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1374446801517266</v>
+        <v>-0.6639242237028846</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.446953586910074</v>
+        <v>-1.121634874006974</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3.531517744064331</v>
+        <v>-2.729167938232422</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.318747520446777</v>
+        <v>0.9446659088134766</v>
       </c>
       <c r="E7" t="n">
-        <v>3.353370428085327</v>
+        <v>2.494723320007324</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7898089613603607</v>
+        <v>-0.05442012457743672</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3619974125986522</v>
+        <v>-0.6851783446643664</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.304489494017943</v>
+        <v>-1.266947746276855</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-4.357868194580078</v>
+        <v>-2.581250190734864</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.8888802528381348</v>
+        <v>-1.341118812561035</v>
       </c>
       <c r="E8" t="n">
-        <v>1.668703079223633</v>
+        <v>3.135838031768799</v>
       </c>
       <c r="F8" t="n">
-        <v>0.258422552243524</v>
+        <v>-1.690450101442949</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7682891954546356</v>
+        <v>0.1374446801517266</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.810219791272407</v>
+        <v>-2.446953586910074</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2.958048820495605</v>
+        <v>-3.531517744064331</v>
       </c>
       <c r="D9" t="n">
-        <v>1.071966171264648</v>
+        <v>-1.318747520446777</v>
       </c>
       <c r="E9" t="n">
-        <v>2.359493732452393</v>
+        <v>3.353370428085327</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04960623909921762</v>
+        <v>-0.7898089613603607</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7135171605193199</v>
+        <v>0.3619974125986522</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.9448558195777682</v>
+        <v>-1.304489494017943</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-2.444142341613769</v>
+        <v>-4.357868194580078</v>
       </c>
       <c r="D10" t="n">
-        <v>3.017045021057129</v>
+        <v>-0.8888802528381348</v>
       </c>
       <c r="E10" t="n">
-        <v>3.164138793945312</v>
+        <v>1.668703079223633</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06745413115814936</v>
+        <v>0.258422552243524</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.9221143800279369</v>
+        <v>0.7682891954546356</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8995588318161351</v>
+        <v>-0.810219791272407</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11.84617519378662</v>
+        <v>-2.958048820495605</v>
       </c>
       <c r="D11" t="n">
-        <v>12.23642921447754</v>
+        <v>1.071966171264648</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.10580062866211</v>
+        <v>2.359493732452393</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2945499300308859</v>
+        <v>0.04960623909921762</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.8846524111602638</v>
+        <v>0.7135171605193199</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1974289948525624</v>
+        <v>-0.9448558195777682</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.457912445068359</v>
+        <v>-2.444142341613769</v>
       </c>
       <c r="D12" t="n">
-        <v>2.939115047454834</v>
+        <v>3.017045021057129</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4148249626159668</v>
+        <v>3.164138793945312</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04833139317191015</v>
+        <v>0.06745413115814936</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1051352218441374</v>
+        <v>-0.9221143800279369</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5846644471520946</v>
+        <v>0.8995588318161351</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.8629045486450195</v>
+        <v>11.84617519378662</v>
       </c>
       <c r="D13" t="n">
-        <v>3.290266990661621</v>
+        <v>12.23642921447754</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8776016235351562</v>
+        <v>-18.10580062866211</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3716119142330205</v>
+        <v>0.2945499300308859</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.238370238438896</v>
+        <v>-0.8846524111602638</v>
       </c>
       <c r="H13" t="n">
-        <v>0.260175480790761</v>
+        <v>0.1974289948525624</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-3.679473400115967</v>
+        <v>-1.457912445068359</v>
       </c>
       <c r="D14" t="n">
-        <v>2.323786020278931</v>
+        <v>2.939115047454834</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.220887899398804</v>
+        <v>-0.4148249626159668</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.264046503797822</v>
+        <v>-0.04833139317191015</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.3259165299975353</v>
+        <v>-0.1051352218441374</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5310809301293402</v>
+        <v>0.5846644471520946</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-4.424082279205322</v>
+        <v>-0.8629045486450195</v>
       </c>
       <c r="D15" t="n">
-        <v>2.453023910522461</v>
+        <v>3.290266990661621</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.3296817541122436</v>
+        <v>0.8776016235351562</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03510483127573347</v>
+        <v>-0.3716119142330205</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2923986199109453</v>
+        <v>-0.238370238438896</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3991871540961079</v>
+        <v>0.260175480790761</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.3798131942749023</v>
+        <v>-3.679473400115967</v>
       </c>
       <c r="D16" t="n">
-        <v>1.398460149765015</v>
+        <v>2.323786020278931</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1842668354511261</v>
+        <v>-1.220887899398804</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08346278123233626</v>
+        <v>-0.264046503797822</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1424975973432492</v>
+        <v>-0.3259165299975353</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04679758806267567</v>
+        <v>0.5310809301293402</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.503312110900879</v>
+        <v>-4.424082279205322</v>
       </c>
       <c r="D17" t="n">
-        <v>2.368537425994873</v>
+        <v>2.453023910522461</v>
       </c>
       <c r="E17" t="n">
-        <v>1.035360455513</v>
+        <v>-0.3296817541122436</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07242736803448724</v>
+        <v>-0.03510483127573347</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02474668281881699</v>
+        <v>-0.2923986199109453</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.03723622056777053</v>
+        <v>0.3991871540961079</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.999871730804444</v>
+        <v>-0.3798131942749023</v>
       </c>
       <c r="D18" t="n">
-        <v>2.280814170837402</v>
+        <v>1.398460149765015</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2208117842674255</v>
+        <v>0.1842668354511261</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03090181347468638</v>
+        <v>0.08346278123233626</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04209658244381763</v>
+        <v>-0.1424975973432492</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.06578089167242437</v>
+        <v>0.04679758806267567</v>
       </c>
     </row>
     <row r="19">
@@ -961,21 +961,77 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>-1.503312110900879</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.368537425994873</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.035360455513</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.07242736803448724</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02474668281881699</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.03723622056777053</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1800</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.999871730804444</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.280814170837402</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2208117842674255</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.03090181347468638</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.04209658244381763</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.06578089167242437</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>-1.399001121520996</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D21" t="n">
         <v>2.387249946594238</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E21" t="n">
         <v>-0.2009698152542114</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F21" t="n">
         <v>-0.0216857157647609</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G21" t="n">
         <v>0.08552113175392149</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H21" t="n">
         <v>-0.1296561509370803</v>
       </c>
     </row>

--- a/spliced/falling/2023-03-25_18-01-55/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-55/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.97176456451416</v>
+        <v>-2.243617534637451</v>
       </c>
       <c r="D2" t="n">
-        <v>1.745009422302246</v>
+        <v>1.99995231628418</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4838592410087585</v>
+        <v>0.6877330541610718</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1914996167887811</v>
+        <v>-0.06436660403446501</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03030422819859344</v>
+        <v>0.02161267820907678</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02057685541069637</v>
+        <v>-0.02475332161006712</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.845728397369385</v>
+        <v>-1.472963809967041</v>
       </c>
       <c r="D3" t="n">
-        <v>1.672563552856445</v>
+        <v>1.918478488922119</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5211508870124817</v>
+        <v>0.357224702835083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1882859338884768</v>
+        <v>-0.002483299958681726</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0655750582480559</v>
+        <v>-0.07227465348399185</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4253946024438608</v>
+        <v>-0.05542938006312945</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.323234558105469</v>
+        <v>-2.048044681549072</v>
       </c>
       <c r="D4" t="n">
-        <v>1.572612762451172</v>
+        <v>1.973574161529541</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7384862899780273</v>
+        <v>0.7422993183135986</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06060181622919789</v>
+        <v>0.05864306564604772</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2589603908683945</v>
+        <v>-0.01641368349690153</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4051430983387903</v>
+        <v>-0.03955352419744367</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.269093036651612</v>
+        <v>-1.858012676239014</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9374399185180664</v>
+        <v>2.016510963439941</v>
       </c>
       <c r="E5" t="n">
-        <v>1.780844926834106</v>
+        <v>0.136701762676239</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2129994086597282</v>
+        <v>0.0103050321340562</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3793273995751927</v>
+        <v>0.04435412786172135</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01590242139671223</v>
+        <v>0.04177123000440386</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.246297359466553</v>
+        <v>-1.831352233886719</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5547242164611816</v>
+        <v>1.850147724151612</v>
       </c>
       <c r="E6" t="n">
-        <v>1.987784385681152</v>
+        <v>0.5375880002975464</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5540348317312142</v>
+        <v>0.02360463045213534</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6639242237028846</v>
+        <v>0.01676559415848359</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.121634874006974</v>
+        <v>0.06694286187057909</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.729167938232422</v>
+        <v>-1.778313636779785</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9446659088134766</v>
+        <v>1.832831382751465</v>
       </c>
       <c r="E7" t="n">
-        <v>2.494723320007324</v>
+        <v>0.6446512937545776</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.05442012457743672</v>
+        <v>0.02699094848788307</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.6851783446643664</v>
+        <v>-0.01045774781833528</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.266947746276855</v>
+        <v>0.02604145086977801</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.581250190734864</v>
+        <v>-1.913262844085693</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.341118812561035</v>
+        <v>1.87591552734375</v>
       </c>
       <c r="E8" t="n">
-        <v>3.135838031768799</v>
+        <v>0.3856300711631775</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.690450101442949</v>
+        <v>-0.01472052470173514</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1374446801517266</v>
+        <v>0.001075654007170485</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.446953586910074</v>
+        <v>-0.02027806955511146</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-3.531517744064331</v>
+        <v>-2.06378698348999</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.318747520446777</v>
+        <v>1.738418102264404</v>
       </c>
       <c r="E9" t="n">
-        <v>3.353370428085327</v>
+        <v>0.8020429015159607</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7898089613603607</v>
+        <v>-0.0279470856260994</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3619974125986522</v>
+        <v>-0.001367806902398176</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.304489494017943</v>
+        <v>-0.02752877472211478</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-4.357868194580078</v>
+        <v>-1.788212299346924</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.8888802528381348</v>
+        <v>1.889766216278076</v>
       </c>
       <c r="E10" t="n">
-        <v>1.668703079223633</v>
+        <v>0.3115454912185669</v>
       </c>
       <c r="F10" t="n">
-        <v>0.258422552243524</v>
+        <v>-0.02199114867202608</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7682891954546356</v>
+        <v>0.004966600231178349</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.810219791272407</v>
+        <v>-0.03471972080676452</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-2.958048820495605</v>
+        <v>-1.937233924865723</v>
       </c>
       <c r="D11" t="n">
-        <v>1.071966171264648</v>
+        <v>1.803182125091553</v>
       </c>
       <c r="E11" t="n">
-        <v>2.359493732452393</v>
+        <v>0.8862782716751099</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04960623909921762</v>
+        <v>-0.01893682202891156</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7135171605193199</v>
+        <v>0.0004515091119253129</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.9448558195777682</v>
+        <v>0.08639095043358573</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2.444142341613769</v>
+        <v>-2.046533107757568</v>
       </c>
       <c r="D12" t="n">
-        <v>3.017045021057129</v>
+        <v>1.845665454864502</v>
       </c>
       <c r="E12" t="n">
-        <v>3.164138793945312</v>
+        <v>0.7709857225418091</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06745413115814936</v>
+        <v>-0.007516298443078927</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.9221143800279369</v>
+        <v>0.01816660165786737</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8995588318161351</v>
+        <v>0.06252737019373024</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11.84617519378662</v>
+        <v>-1.904958724975586</v>
       </c>
       <c r="D13" t="n">
-        <v>12.23642921447754</v>
+        <v>1.821238040924072</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.10580062866211</v>
+        <v>0.7353460788726807</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2945499300308859</v>
+        <v>-0.01159979990157086</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.8846524111602638</v>
+        <v>0.006480483672298237</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1974289948525624</v>
+        <v>0.04596096941310422</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.457912445068359</v>
+        <v>-1.893377780914306</v>
       </c>
       <c r="D14" t="n">
-        <v>2.939115047454834</v>
+        <v>1.849058628082276</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.4148249626159668</v>
+        <v>0.4389755129814148</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.04833139317191015</v>
+        <v>-0.01335271759687552</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1051352218441374</v>
+        <v>0.001062374369686679</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5846644471520946</v>
+        <v>0.02341207367894439</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.8629045486450195</v>
+        <v>-1.822815418243408</v>
       </c>
       <c r="D15" t="n">
-        <v>3.290266990661621</v>
+        <v>1.71094799041748</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8776016235351562</v>
+        <v>0.5070880651473999</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3716119142330205</v>
+        <v>-0.02131388465995362</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.238370238438896</v>
+        <v>-0.005225553865665965</v>
       </c>
       <c r="H15" t="n">
-        <v>0.260175480790761</v>
+        <v>0.007270624132259934</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-3.679473400115967</v>
+        <v>-1.894952774047852</v>
       </c>
       <c r="D16" t="n">
-        <v>2.323786020278931</v>
+        <v>1.727813243865967</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.220887899398804</v>
+        <v>0.551978588104248</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.264046503797822</v>
+        <v>-0.03625352340547929</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3259165299975353</v>
+        <v>-0.01064366328975433</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5310809301293402</v>
+        <v>0.008558753068032388</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-4.424082279205322</v>
+        <v>-1.988187789916992</v>
       </c>
       <c r="D17" t="n">
-        <v>2.453023910522461</v>
+        <v>1.761092185974121</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.3296817541122436</v>
+        <v>0.5642168521881104</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.03510483127573347</v>
+        <v>-0.02540402729874076</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2923986199109453</v>
+        <v>0.01100221381563203</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3991871540961079</v>
+        <v>0.005378270172513961</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.3798131942749023</v>
+        <v>-1.921907901763916</v>
       </c>
       <c r="D18" t="n">
-        <v>1.398460149765015</v>
+        <v>1.732572555541992</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1842668354511261</v>
+        <v>0.5020300149917603</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08346278123233626</v>
+        <v>0.0394008085131645</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1424975973432492</v>
+        <v>-0.0215329993516206</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04679758806267567</v>
+        <v>-0.001527163083665</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1.503312110900879</v>
+        <v>-1.923232555389404</v>
       </c>
       <c r="D19" t="n">
-        <v>2.368537425994873</v>
+        <v>1.782273769378662</v>
       </c>
       <c r="E19" t="n">
-        <v>1.035360455513</v>
+        <v>0.3185268342494964</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07242736803448724</v>
+        <v>-0.005351710416700385</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02474668281881699</v>
+        <v>-0.006526962327568362</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.03723622056777053</v>
+        <v>-0.02914889580468922</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1.999871730804444</v>
+        <v>-1.910520076751709</v>
       </c>
       <c r="D20" t="n">
-        <v>2.280814170837402</v>
+        <v>1.814604759216309</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2208117842674255</v>
+        <v>0.3955313861370086</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03090181347468638</v>
+        <v>0.0001261571584187555</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04209658244381763</v>
+        <v>0.01954104799939229</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.06578089167242437</v>
+        <v>0.05001127266365517</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-1.399001121520996</v>
+        <v>-2.009746074676514</v>
       </c>
       <c r="D21" t="n">
-        <v>2.387249946594238</v>
+        <v>1.783975601196289</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2009698152542114</v>
+        <v>0.4257155656814575</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0216857157647609</v>
+        <v>0.1110513180737254</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08552113175392149</v>
+        <v>0.04867666449559752</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.1296561509370803</v>
+        <v>-0.1655312067140687</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.97176456451416</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.745009422302246</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4838592410087585</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1914996167887811</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03030422819859344</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.02057685541069637</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.845728397369385</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.672563552856445</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5211508870124817</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1882859338884768</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0655750582480559</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.4253946024438608</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.323234558105469</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.572612762451172</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7384862899780273</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.06060181622919789</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2589603908683945</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4051430983387903</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.269093036651612</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9374399185180664</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.780844926834106</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.2129994086597282</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3793273995751927</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.01590242139671223</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.246297359466553</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5547242164611816</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.987784385681152</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5540348317312142</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.6639242237028846</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-1.121634874006974</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.729167938232422</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9446659088134766</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.494723320007324</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.05442012457743672</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.6851783446643664</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-1.266947746276855</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.581250190734864</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-1.341118812561035</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.135838031768799</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-1.690450101442949</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1374446801517266</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-2.446953586910074</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.531517744064331</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-1.318747520446777</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.353370428085327</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.7898089613603607</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.3619974125986522</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1.304489494017943</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-4.357868194580078</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.8888802528381348</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.668703079223633</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.258422552243524</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7682891954546356</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.810219791272407</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.958048820495605</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.071966171264648</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.359493732452393</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.04960623909921762</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.7135171605193199</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.9448558195777682</v>
       </c>
     </row>
   </sheetData>
